--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints2.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints2.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.544299162382771e-11</v>
+        <v>4.46256990233366e-11</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>4.532590679280101e-11</v>
+        <v>4.573305959391275e-11</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>4.566451841144869e-11</v>
+        <v>4.701239215136338e-11</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>4.642488601832698e-11</v>
+        <v>4.845435647910181e-11</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>4.757306915199317e-11</v>
+        <v>5.004961236054626e-11</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>4.907512735100443e-11</v>
+        <v>5.178881957911337e-11</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>5.089712015392051e-11</v>
+        <v>5.366263791822236e-11</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>5.300510709929376e-11</v>
+        <v>5.566172716128499e-11</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>5.536514772568349e-11</v>
+        <v>5.777674709172024e-11</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>5.79433015716504e-11</v>
+        <v>5.999835749294779e-11</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>6.070562817574487e-11</v>
+        <v>6.231721814837845e-11</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>6.361818707652726e-11</v>
+        <v>6.472398884143172e-11</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>6.664703781255879e-11</v>
+        <v>6.720932935552758e-11</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>6.975823992238863e-11</v>
+        <v>6.976389947407615e-11</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>7.291785294457783e-11</v>
+        <v>7.237835898049731e-11</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>7.609193641768358e-11</v>
+        <v>7.504336765820772e-11</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>7.924654988026713e-11</v>
+        <v>7.774958529062761e-11</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>8.234775287087732e-11</v>
+        <v>8.048767166116653e-11</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>8.53625256603953e-11</v>
+        <v>8.32482942505211e-11</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>8.827636420668228e-11</v>
+        <v>8.60222753296109e-11</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>9.109191231766522e-11</v>
+        <v>8.880058052451888e-11</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>9.381246046101907e-11</v>
+        <v>9.157418086738219e-11</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>9.644129910441476e-11</v>
+        <v>9.433404739033433e-11</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>9.898171871552658e-11</v>
+        <v>9.707115112551244e-11</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.014370097620188e-10</v>
+        <v>9.977646310504272e-11</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.038104627115659e-10</v>
+        <v>1.024409543610624e-10</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.061053680318417e-10</v>
+        <v>1.050555959257083e-10</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.083250161905112e-10</v>
+        <v>1.076113588311071e-10</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.104726976552485e-10</v>
+        <v>1.100992141093957e-10</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.125517028937246e-10</v>
+        <v>1.125101327927078e-10</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.145653223736129e-10</v>
+        <v>1.148350859131797e-10</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.165168465625793e-10</v>
+        <v>1.170650445029389e-10</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.184095659282974e-10</v>
+        <v>1.191909795941219e-10</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.202467709384405e-10</v>
+        <v>1.21203862218865e-10</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.220303812967541e-10</v>
+        <v>1.230951984315636e-10</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.237531425412395e-10</v>
+        <v>1.248600750512505e-10</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.254040349350541e-10</v>
+        <v>1.264950485197379e-10</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.269720272612833e-10</v>
+        <v>1.279966797596111e-10</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.284460883030186e-10</v>
+        <v>1.293615296934622e-10</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.298151868433495e-10</v>
+        <v>1.305861592438809e-10</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.310682916653671e-10</v>
+        <v>1.316671293334581e-10</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.321943715521575e-10</v>
+        <v>1.326010008847808e-10</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.331823952868118e-10</v>
+        <v>1.3338433482044e-10</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.340213316524206e-10</v>
+        <v>1.340136920630265e-10</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.347001494320711e-10</v>
+        <v>1.34485633535128e-10</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.35207817408854e-10</v>
+        <v>1.347967201593353e-10</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.355333043658587e-10</v>
+        <v>1.349435128582382e-10</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.356655790861747e-10</v>
+        <v>1.34922572554426e-10</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.355936103528911e-10</v>
+        <v>1.347304601704887e-10</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.353080143329422e-10</v>
+        <v>1.343649073035591e-10</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.348205859305499e-10</v>
+        <v>1.338386957217935e-10</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.341578126983819e-10</v>
+        <v>1.331750481780442e-10</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.333464777398875e-10</v>
+        <v>1.323973974513674e-10</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.324133641585151e-10</v>
+        <v>1.315291763208184e-10</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.313852550577167e-10</v>
+        <v>1.305938175654565e-10</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.302889335409411e-10</v>
+        <v>1.29614753964337e-10</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.291511827116378e-10</v>
+        <v>1.286154182965169e-10</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.279987856732551e-10</v>
+        <v>1.276192433410514e-10</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.268585255292456e-10</v>
+        <v>1.266496618769998e-10</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.257571853830576e-10</v>
+        <v>1.257301066834177e-10</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.247215483381395e-10</v>
+        <v>1.248840105393605e-10</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.237776317745982e-10</v>
+        <v>1.241340657194507e-10</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.229326212415393e-10</v>
+        <v>1.234847528890027e-10</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.221741665427508e-10</v>
+        <v>1.229216603729494e-10</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.214890109163737e-10</v>
+        <v>1.224294997880925e-10</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.208638976005516e-10</v>
+        <v>1.219929827512356e-10</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.202855698334257e-10</v>
+        <v>1.215968208791803e-10</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.19740770853137e-10</v>
+        <v>1.212257257887283e-10</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.192162438978291e-10</v>
+        <v>1.208644090966828e-10</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.18698732205643e-10</v>
+        <v>1.204975824198455e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.1817497901472e-10</v>
+        <v>1.201099573750183e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.176317275632034e-10</v>
+        <v>1.196862455790044e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.170557210892344e-10</v>
+        <v>1.192111586486055e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.16433702830955e-10</v>
+        <v>1.186694082006238e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.157524160265061e-10</v>
+        <v>1.180457058518608e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.149986039140315e-10</v>
+        <v>1.173247632191204e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.141590097316722e-10</v>
+        <v>1.16491291919204e-10</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.132203767175688e-10</v>
+        <v>1.155300035689126e-10</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.121694481098658e-10</v>
+        <v>1.144256097850509e-10</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.109929671467039e-10</v>
+        <v>1.131628221844199e-10</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09677677066225e-10</v>
+        <v>1.11726352383822e-10</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.082103211065691e-10</v>
+        <v>1.101009120000572e-10</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.065776425058818e-10</v>
+        <v>1.082712126499319e-10</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.047663845023034e-10</v>
+        <v>1.062219659502463e-10</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.027632903339729e-10</v>
+        <v>1.039378835177997e-10</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.005551032390375e-10</v>
+        <v>1.014036769694002e-10</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>9.812856645563676e-11</v>
+        <v>9.860405792184727e-11</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>9.548194497981294e-11</v>
+        <v>9.553951468952203e-11</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>9.26733955498926e-11</v>
+        <v>9.229254511292731e-11</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>8.978047440436936e-11</v>
+        <v>8.897221069150865e-11</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>8.688074773465338e-11</v>
+        <v>8.568758655320334e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>8.405178173215482e-11</v>
+        <v>8.254774782594898e-11</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>8.137114258829492e-11</v>
+        <v>7.966176963769536e-11</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>7.891639649448371e-11</v>
+        <v>7.713872711637972e-11</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>7.676510964213236e-11</v>
+        <v>7.508769538994125e-11</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>7.499484822266038e-11</v>
+        <v>7.361774958632694e-11</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>7.368317842747852e-11</v>
+        <v>7.283796483347525e-11</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>7.290766644800054e-11</v>
+        <v>7.285741625932765e-11</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>7.274587847564043e-11</v>
+        <v>7.378517899182751e-11</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.327538070181247e-11</v>
+        <v>7.5730328158914e-11</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.306741909959848e-11</v>
+        <v>2.320723908610958e-11</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.988047848629715e-11</v>
+        <v>3.01509892939327e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.857444777609988e-11</v>
+        <v>2.926819802781719e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>3.92426899327851e-11</v>
+        <v>3.953488620890979e-11</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>4.938376022880857e-11</v>
+        <v>4.916076955201357e-11</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>5.050278760121798e-11</v>
+        <v>5.030417429703719e-11</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>8.297958747188582e-11</v>
+        <v>8.329104261237147e-11</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.198452617400016e-10</v>
+        <v>2.20626171365539e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>4.443380519260584e-10</v>
+        <v>4.455352826928114e-10</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>5.534126555191192e-10</v>
+        <v>5.554811087000828e-10</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>5.855406320887998e-10</v>
+        <v>5.867902244379765e-10</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>5.887752681425549e-10</v>
+        <v>5.8775550400817e-10</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>5.69764362869327e-10</v>
+        <v>5.682755265851819e-10</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>5.415501261010658e-10</v>
+        <v>5.413694444766688e-10</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>5.19963720356887e-10</v>
+        <v>5.208851264095773e-10</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>5.066860616330822e-10</v>
+        <v>5.070201476994598e-10</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>5.013522109892114e-10</v>
+        <v>4.998700274816776e-10</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>5.111412339195061e-10</v>
+        <v>5.115983877114773e-10</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>5.003760131618152e-10</v>
+        <v>5.016426981253213e-10</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>4.881807743628734e-10</v>
+        <v>4.875201716532174e-10</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>4.945173672126263e-10</v>
+        <v>4.932916830721172e-10</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>4.924649817479873e-10</v>
+        <v>4.914992595912629e-10</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>4.844547206262642e-10</v>
+        <v>4.839932439949943e-10</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>4.766149508663201e-10</v>
+        <v>4.765236746023152e-10</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>4.681126335584701e-10</v>
+        <v>4.682355739752623e-10</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>4.573605822660193e-10</v>
+        <v>4.575584258393056e-10</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>4.428118024992198e-10</v>
+        <v>4.42964375864279e-10</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>4.233293880464419e-10</v>
+        <v>4.233608599867075e-10</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>3.980161791366042e-10</v>
+        <v>3.979097942090253e-10</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>3.660211938545114e-10</v>
+        <v>3.658192590989664e-10</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>3.281712297379116e-10</v>
+        <v>3.279673955215814e-10</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>2.874724793742417e-10</v>
+        <v>2.87401712394596e-10</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>2.470767779516534e-10</v>
+        <v>2.473146911615507e-10</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.097630827914075e-10</v>
+        <v>2.104915981157953e-10</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.75851265746884e-10</v>
+        <v>1.770321637571607e-10</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.446692913562761e-10</v>
+        <v>1.459537380852944e-10</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.161508886615959e-10</v>
+        <v>1.170675058073367e-10</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>9.148575415757629e-11</v>
+        <v>9.182928434153617e-11</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>7.196119934649177e-11</v>
+        <v>7.18312496407979e-11</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>5.772560406867524e-11</v>
+        <v>5.734303634711965e-11</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.788280895149637e-11</v>
+        <v>4.742134745246157e-11</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>4.149799558701149e-11</v>
+        <v>4.107799460635199e-11</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>3.763634556728452e-11</v>
+        <v>3.732478945832672e-11</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.536304048437046e-11</v>
+        <v>3.51735436579127e-11</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>3.377946961013243e-11</v>
+        <v>3.367476195915458e-11</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>3.248443123682404e-11</v>
+        <v>3.241050207160575e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>3.143813691979045e-11</v>
+        <v>3.134904366759274e-11</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>3.060893398492942e-11</v>
+        <v>3.046736065839913e-11</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.996516975813909e-11</v>
+        <v>2.974242695530887e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.947519156531846e-11</v>
+        <v>2.91512164696068e-11</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.910734673236562e-11</v>
+        <v>2.867070311257681e-11</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.882998258517897e-11</v>
+        <v>2.82778607955031e-11</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.861144644965682e-11</v>
+        <v>2.794966342966974e-11</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.842425581116867e-11</v>
+        <v>2.766601127245783e-11</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.826158712705394e-11</v>
+        <v>2.742130170117978e-11</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.812300256264294e-11</v>
+        <v>2.721441316678165e-11</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.800806615272187e-11</v>
+        <v>2.704422543207195e-11</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.791634193207675e-11</v>
+        <v>2.69096182598589e-11</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.784739393549366e-11</v>
+        <v>2.680947141295082e-11</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.780078619775865e-11</v>
+        <v>2.674266465415601e-11</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.777608275365788e-11</v>
+        <v>2.670807774628284e-11</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.777284763797736e-11</v>
+        <v>2.67045904521396e-11</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.779064488550321e-11</v>
+        <v>2.673108253453463e-11</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.78290385310215e-11</v>
+        <v>2.678643375627622e-11</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.788759260931831e-11</v>
+        <v>2.686952388017271e-11</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>2.796587115517971e-11</v>
+        <v>2.697923266903239e-11</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.806343820339184e-11</v>
+        <v>2.711443988566368e-11</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.817985778874069e-11</v>
+        <v>2.727402529287476e-11</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.831469394601239e-11</v>
+        <v>2.745686865347401e-11</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.846751070999308e-11</v>
+        <v>2.766184973026984e-11</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.863787211546872e-11</v>
+        <v>2.78878482860704e-11</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.882534219722544e-11</v>
+        <v>2.813374408368408e-11</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.902948499004933e-11</v>
+        <v>2.839841688591922e-11</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.924986452872657e-11</v>
+        <v>2.868074645558424e-11</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.948604484804305e-11</v>
+        <v>2.897961255548724e-11</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.973758998278495e-11</v>
+        <v>2.929389494843665e-11</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>3.000406396773847e-11</v>
+        <v>2.962247339724094e-11</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>3.028503083768944e-11</v>
+        <v>2.996422766470813e-11</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>3.058005462742407e-11</v>
+        <v>3.031803751364668e-11</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>3.088869937172844e-11</v>
+        <v>3.068278270686492e-11</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>3.121052910538878e-11</v>
+        <v>3.105734300717134e-11</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>3.154510786319087e-11</v>
+        <v>3.144059817737392e-11</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>3.189199967992096e-11</v>
+        <v>3.183142798028116e-11</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>3.225076859036511e-11</v>
+        <v>3.222871217870135e-11</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>3.262097862930957e-11</v>
+        <v>3.263133053544302e-11</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>3.30021938315401e-11</v>
+        <v>3.303816281331411e-11</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>3.339397823184294e-11</v>
+        <v>3.344808877512314e-11</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>3.379589605836558e-11</v>
+        <v>3.385998845924615e-11</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>3.420820242602766e-11</v>
+        <v>3.42737265170834e-11</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>3.463339509246519e-11</v>
+        <v>3.469236368847614e-11</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>3.507442606074643e-11</v>
+        <v>3.511960807834291e-11</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>3.55342473339391e-11</v>
+        <v>3.555916779160171e-11</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>3.601581091511144e-11</v>
+        <v>3.601475093317109e-11</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>3.652206880733155e-11</v>
+        <v>3.649006560796944e-11</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>3.705597301366776e-11</v>
+        <v>3.698881992091536e-11</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>3.762047553718766e-11</v>
+        <v>3.751472197692675e-11</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>3.821852838095958e-11</v>
+        <v>3.807147988092223e-11</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>3.885308354805158e-11</v>
+        <v>3.866280173782015e-11</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>3.952709304153207e-11</v>
+        <v>3.929239565253919e-11</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>4.024350886446852e-11</v>
+        <v>3.996396972999714e-11</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>4.10052830199293e-11</v>
+        <v>4.068123207511265e-11</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>4.181536751098287e-11</v>
+        <v>4.144789079280447e-11</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>4.26767143406966e-11</v>
+        <v>4.226765398799026e-11</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>4.359227551213889e-11</v>
+        <v>4.314422976558874e-11</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>4.456500302837784e-11</v>
+        <v>4.408132623051827e-11</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>4.559784889248201e-11</v>
+        <v>4.508265148769769e-11</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>4.669376510751856e-11</v>
+        <v>4.615191364204448e-11</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>4.7855703676556e-11</v>
+        <v>4.729282079847744e-11</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>4.908661660266299e-11</v>
+        <v>4.850908106191549e-11</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>5.038945588890652e-11</v>
+        <v>4.980440253727595e-11</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>5.176717353835519e-11</v>
+        <v>5.118249332947768e-11</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>5.322272155407707e-11</v>
+        <v>5.264706154343907e-11</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>5.475905193914099e-11</v>
+        <v>5.420181528407923e-11</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>5.637911669661361e-11</v>
+        <v>5.585046265631509e-11</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>5.808870705567822e-11</v>
+        <v>5.759928316781707e-11</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>5.990878385871632e-11</v>
+        <v>5.94682949943086e-11</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>6.186535345659956e-11</v>
+        <v>6.148208587867303e-11</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>6.39844255980605e-11</v>
+        <v>6.366524664113574e-11</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>6.629201003183075e-11</v>
+        <v>6.604236810192116e-11</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>6.881411650664323e-11</v>
+        <v>6.863804108125503e-11</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>7.157675477122745e-11</v>
+        <v>7.147685639935955e-11</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>7.460593457431613e-11</v>
+        <v>7.458340487646028e-11</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>7.792766566464257e-11</v>
+        <v>7.798227733278338e-11</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>8.156795779093546e-11</v>
+        <v>8.169806458855023e-11</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>8.555282070192797e-11</v>
+        <v>8.575535746398685e-11</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>8.990826414635178e-11</v>
+        <v>9.01787467793177e-11</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>9.466029787294086e-11</v>
+        <v>9.499282335476955e-11</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>9.983493163042259e-11</v>
+        <v>1.002221780105626e-10</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.054581751675308e-10</v>
+        <v>1.058914015669233e-10</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.11556038233e-10</v>
+        <v>1.120250848440792e-10</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.181545305755563e-10</v>
+        <v>1.186478186622492e-10</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.25295124943734e-10</v>
+        <v>1.257998690376607e-10</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.331835513311172e-10</v>
+        <v>1.336880133067224e-10</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.421245881226458e-10</v>
+        <v>1.426194364219666e-10</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.524243795635102e-10</v>
+        <v>1.529027079396514e-10</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.643890698989125e-10</v>
+        <v>1.648463974160466e-10</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.78324803374051e-10</v>
+        <v>1.787590744074184e-10</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.945377242341319e-10</v>
+        <v>1.949493084700406e-10</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>2.133339767243389e-10</v>
+        <v>2.137256691601648e-10</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.350197050898772e-10</v>
+        <v>2.353967260340638e-10</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>2.59901053575957e-10</v>
+        <v>2.602710486480158e-10</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.882841664277544e-10</v>
+        <v>2.886572065582645e-10</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>3.204751878904782e-10</v>
+        <v>3.208637693210865e-10</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>3.567802622093438e-10</v>
+        <v>3.57199306492765e-10</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>3.974296219069693e-10</v>
+        <v>3.978961705344092e-10</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>4.417236082130674e-10</v>
+        <v>4.422530819100151e-10</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>4.883393212048721e-10</v>
+        <v>4.889430127984709e-10</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>5.359423742229795e-10</v>
+        <v>5.366274024339549e-10</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>5.831983806079204e-10</v>
+        <v>5.839676900505799e-10</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>6.287729537002909e-10</v>
+        <v>6.296253148825241e-10</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>6.713317068406657e-10</v>
+        <v>6.722617161639436e-10</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>7.095402533696347e-10</v>
+        <v>7.105383331290109e-10</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>7.420642066277378e-10</v>
+        <v>7.431166050118478e-10</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>7.675691799555679e-10</v>
+        <v>7.68657971046629e-10</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>7.847207866937047e-10</v>
+        <v>7.858238704675164e-10</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>7.921846401827069e-10</v>
+        <v>7.932757425086507e-10</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>7.886263537631588e-10</v>
+        <v>7.896750264041982e-10</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>7.728364697157597e-10</v>
+        <v>7.738086125126134e-10</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>7.453828393644497e-10</v>
+        <v>7.462481291199847e-10</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>7.081559133384926e-10</v>
+        <v>7.088933320838255e-10</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>6.630776325968101e-10</v>
+        <v>6.636755992161485e-10</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>6.120699380983099e-10</v>
+        <v>6.125263083289512e-10</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>5.570547708019708e-10</v>
+        <v>5.573768372343028e-10</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>4.999540716667026e-10</v>
+        <v>5.001585637442037e-10</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>4.426897816514371e-10</v>
+        <v>4.428028656706757e-10</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.871838417150817e-10</v>
+        <v>3.872411208257168e-10</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.35358192816619e-10</v>
+        <v>3.354047070213998e-10</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.891347759149553e-10</v>
+        <v>2.892250020697212e-10</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.504355319690069e-10</v>
+        <v>2.506333837826879e-10</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.211824019377411e-10</v>
+        <v>2.215612299723574e-10</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.032973267800707e-10</v>
+        <v>2.039399184507326e-10</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.981149465129666e-10</v>
+        <v>1.991040307858003e-10</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.987516085592038e-10</v>
+        <v>2.000369851092602e-10</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.922763662196598e-10</v>
+        <v>1.935771346283856e-10</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.656395996196215e-10</v>
+        <v>1.664424089354927e-10</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.173736310902505e-10</v>
+        <v>1.172102232514236e-10</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>7.641109488895099e-11</v>
+        <v>7.558570093300479e-11</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>5.953901791155451e-11</v>
+        <v>5.876129309558267e-11</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>5.556665990024982e-11</v>
+        <v>5.515728673801641e-11</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>5.237126375918261e-11</v>
+        <v>5.224594509177596e-11</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>4.727368893513367e-11</v>
+        <v>4.727135429655733e-11</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>4.096034428072818e-11</v>
+        <v>4.096011724126231e-11</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.412176586534323e-11</v>
+        <v>3.404310747011002e-11</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.743792477126061e-11</v>
+        <v>2.724009285366224e-11</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.138046390585853e-11</v>
+        <v>2.105185143285337e-11</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.623031082970641e-11</v>
+        <v>1.5778685622484e-11</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.226135930023233e-11</v>
+        <v>1.171350406379403e-11</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>9.747503074869523e-12</v>
+        <v>9.149215398028654e-12</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>8.962635911045482e-12</v>
+        <v>8.378728266427168e-12</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.018065156618976e-11</v>
+        <v>9.694951310230989e-12</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.367544379773405e-11</v>
+        <v>1.339079317068379e-11</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.972090636310485e-11</v>
+        <v>1.975916248902376e-11</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.905863082331591e-11</v>
+        <v>2.953836929919129e-11</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>4.786090510017952e-11</v>
+        <v>4.863852410946701e-11</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>8.262092236387149e-11</v>
+        <v>8.323544401372645e-11</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.241125194445332e-10</v>
+        <v>1.243369952955128e-10</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.584731191075225e-10</v>
+        <v>1.584797543633732e-10</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.810698384243031e-10</v>
+        <v>1.811903788663341e-10</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.990298706718566e-10</v>
+        <v>1.994502810435371e-10</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.202434911893316e-10</v>
+        <v>2.209841436369233e-10</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.526002623144268e-10</v>
+        <v>2.53515946998099e-10</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.002253768039455e-10</v>
+        <v>3.010613244436199e-10</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.546925920536977e-10</v>
+        <v>3.552712683836946e-10</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>4.04962889845263e-10</v>
+        <v>4.052228797723227e-10</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>4.399972519602322e-10</v>
+        <v>4.399932595635144e-10</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>4.499612792385535e-10</v>
+        <v>4.498566701106681e-10</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>4.412203710359687e-10</v>
+        <v>4.411868811810971e-10</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>4.317385357784085e-10</v>
+        <v>4.318844659486236e-10</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>4.397318389868745e-10</v>
+        <v>4.401004942254612e-10</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>4.786561429822548e-10</v>
+        <v>4.792419299105976e-10</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>5.41530198800933e-10</v>
+        <v>5.42347736542917e-10</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>6.158891816522453e-10</v>
+        <v>6.169918453059414e-10</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>6.892681996894534e-10</v>
+        <v>6.907481205538784e-10</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>7.492023925434308e-10</v>
+        <v>7.51190457869536e-10</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>7.866464037441845e-10</v>
+        <v>7.89285206013355e-10</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>8.05382559540356e-10</v>
+        <v>8.08724920319634e-10</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>8.122005849401599e-10</v>
+        <v>8.161857642071391e-10</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>8.138902049517882e-10</v>
+        <v>8.18343901094614e-10</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>8.170192737567777e-10</v>
+        <v>8.216598146948723e-10</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>8.246723819427624e-10</v>
+        <v>8.292079226978311e-10</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>8.371665791727496e-10</v>
+        <v>8.41372327794491e-10</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>8.547425669814389e-10</v>
+        <v>8.584629149785118e-10</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>8.776410469035051e-10</v>
+        <v>8.807895692435284e-10</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>9.061027204736458e-10</v>
+        <v>9.086621755831978e-10</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>9.40368289226552e-10</v>
+        <v>9.423906189911705e-10</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>9.80678454696933e-10</v>
+        <v>9.822847844611164e-10</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.027268718870383e-09</v>
+        <v>1.028649087142963e-09</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.079697316717617e-09</v>
+        <v>1.081075467958125e-09</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.136180418820954e-09</v>
+        <v>1.137744037237238e-09</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.194776206676092e-09</v>
+        <v>1.196668703281118e-09</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.253542861778801e-09</v>
+        <v>1.255863374390657e-09</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.310538565624828e-09</v>
+        <v>1.313341958866722e-09</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.363821499709945e-09</v>
+        <v>1.367118365010203e-09</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.41144984552985e-09</v>
+        <v>1.415206501121919e-09</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.451481784580313e-09</v>
+        <v>1.455620275502761e-09</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.481978328996988e-09</v>
+        <v>1.486376514252651e-09</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.501585823290862e-09</v>
+        <v>1.506095399005722e-09</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.510249389095501e-09</v>
+        <v>1.514735879585993e-09</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.508088774195567e-09</v>
+        <v>1.512436908938991e-09</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.495223726375713e-09</v>
+        <v>1.499337440010237e-09</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.471773993420611e-09</v>
+        <v>1.475576425745271e-09</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.437859323114918e-09</v>
+        <v>1.441292819089615e-09</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.393599463243273e-09</v>
+        <v>1.396625572988775e-09</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.339114161590377e-09</v>
+        <v>1.341713640388322e-09</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.274601713315083e-09</v>
+        <v>1.276774042381073e-09</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.201455047478026e-09</v>
+        <v>1.203211145357677e-09</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.121996713612872e-09</v>
+        <v>1.123353264456404e-09</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.038573758487334e-09</v>
+        <v>1.039553062589027e-09</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>9.535332288690229e-10</v>
+        <v>9.541632026672138e-10</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>8.692221715255431e-10</v>
+        <v>8.695363476026278e-10</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>7.879876332246156e-10</v>
+        <v>7.880251603070476e-10</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>7.121766607338452e-10</v>
+        <v>7.119823036921367e-10</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>6.44136300820875e-10</v>
+        <v>6.437604406695962e-10</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>5.85626485073869e-10</v>
+        <v>5.851235597084064e-10</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>5.3598584425015e-10</v>
+        <v>5.354079179446236e-10</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>4.939289126053327e-10</v>
+        <v>4.933240185341854e-10</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>4.581702237561685e-10</v>
+        <v>4.575823639924697e-10</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>4.274243113193966e-10</v>
+        <v>4.268934568348418e-10</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>4.004057089117959e-10</v>
+        <v>3.999677995767073e-10</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>3.758289501501039e-10</v>
+        <v>3.755158947334293e-10</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.524085686510616e-10</v>
+        <v>3.522482448203755e-10</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.288634300502058e-10</v>
+        <v>3.288796704206191e-10</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.047248800580965e-10</v>
+        <v>3.049348556333272e-10</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.812875746884219e-10</v>
+        <v>2.816961161919138e-10</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.600772784790952e-10</v>
+        <v>2.606761320784455e-10</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.42619755967997e-10</v>
+        <v>2.433875832749563e-10</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.304407716930186e-10</v>
+        <v>2.313431497634915e-10</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.250660901920509e-10</v>
+        <v>2.260555115260953e-10</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.280214760029908e-10</v>
+        <v>2.290373485448181e-10</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.408326936637256e-10</v>
+        <v>2.418013408017009e-10</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.649951611077389e-10</v>
+        <v>2.658300552876225e-10</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.003043229515723e-10</v>
+        <v>3.009191723557457e-10</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.439878854857699e-10</v>
+        <v>3.443164009127939e-10</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.930603481781083e-10</v>
+        <v>3.930578843445423e-10</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>4.445362104963734e-10</v>
+        <v>4.44179766036776e-10</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.954299719082807e-10</v>
+        <v>4.947181893752094e-10</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>5.42756131881616e-10</v>
+        <v>5.417092977456272e-10</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>5.835291898841583e-10</v>
+        <v>5.82189234533807e-10</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>6.147636453836328e-10</v>
+        <v>6.131941431254736e-10</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>6.340455544673833e-10</v>
+        <v>6.323276715027407e-10</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>6.419522712987848e-10</v>
+        <v>6.401635590595785e-10</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>6.400364503617759e-10</v>
+        <v>6.382439311656969e-10</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>6.298512828805721e-10</v>
+        <v>6.281114461258887e-10</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.129499600793892e-10</v>
+        <v>6.113087622449465e-10</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>5.90885673182441e-10</v>
+        <v>5.893785378276613e-10</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.652116134139288e-10</v>
+        <v>5.638634311788115e-10</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.374809719980908e-10</v>
+        <v>5.363061006032122e-10</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>5.092469180822043e-10</v>
+        <v>5.082491824734535e-10</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.817667154433073e-10</v>
+        <v>4.809413477385956e-10</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.552599101336245e-10</v>
+        <v>4.546003528690849e-10</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.297186946070292e-10</v>
+        <v>4.292180912603699e-10</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>4.051352613174067e-10</v>
+        <v>4.047864563079119e-10</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.815018027186324e-10</v>
+        <v>3.812973414071619e-10</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.58810511264613e-10</v>
+        <v>3.587426399536021e-10</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.370535794092232e-10</v>
+        <v>3.37114245342683e-10</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.162231996063487e-10</v>
+        <v>3.164040509698658e-10</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.963115643098663e-10</v>
+        <v>2.966039502306031e-10</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.773108659736795e-10</v>
+        <v>2.777058365203739e-10</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>2.592132970516645e-10</v>
+        <v>2.597016032346301e-10</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.420110499976997e-10</v>
+        <v>2.425831437688257e-10</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.256963172656859e-10</v>
+        <v>2.263423515184372e-10</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.102612913095009e-10</v>
+        <v>2.109711198789179e-10</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.956981645830238e-10</v>
+        <v>1.964613422457227e-10</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.819991295401534e-10</v>
+        <v>1.82804912014326e-10</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.691563786347684e-10</v>
+        <v>1.699937225801821e-10</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.571597385427929e-10</v>
+        <v>1.580173976801519e-10</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.459832319873924e-10</v>
+        <v>1.468503991982586e-10</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.35594406349952e-10</v>
+        <v>1.364609767638676e-10</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.259607894489899e-10</v>
+        <v>1.268173612382981e-10</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.170499091030299e-10</v>
+        <v>1.178877834828746e-10</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.08829293130592e-10</v>
+        <v>1.096404743589177e-10</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.012664693502072e-10</v>
+        <v>1.020436647277594e-10</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>9.432896558039518e-11</v>
+        <v>9.506558545072019e-11</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>8.798430963967686e-11</v>
+        <v>8.867446738912169e-11</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>8.220002934658149e-11</v>
+        <v>8.283854140429402e-11</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>7.694365251962969e-11</v>
+        <v>7.752603835755862e-11</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>7.218270697734304e-11</v>
+        <v>7.27051891102378e-11</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>6.78847205382494e-11</v>
+        <v>6.834422452366025e-11</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>6.401722102087011e-11</v>
+        <v>6.441137545914814e-11</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>6.054773624372727e-11</v>
+        <v>6.087487277802432e-11</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>5.744379402534894e-11</v>
+        <v>5.77029473416177e-11</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>5.467292218425308e-11</v>
+        <v>5.4863830011247e-11</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>5.220264853896621e-11</v>
+        <v>5.232575164823952e-11</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>5.000050090801376e-11</v>
+        <v>5.00569431139216e-11</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>4.803400710991532e-11</v>
+        <v>4.802563526961348e-11</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>4.627069496319806e-11</v>
+        <v>4.620005897664328e-11</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>4.467809228638237e-11</v>
+        <v>4.454844509633206e-11</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>4.322372689799348e-11</v>
+        <v>4.30390244900059e-11</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>4.187512661655612e-11</v>
+        <v>4.164002801899039e-11</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.059981926059143e-11</v>
+        <v>4.031968654460736e-11</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>3.936533264862423e-11</v>
+        <v>3.90462309281825e-11</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>3.814094119600794e-11</v>
+        <v>3.7789580445542e-11</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>3.691628346666643e-11</v>
+        <v>3.653934015412717e-11</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.569416471259238e-11</v>
+        <v>3.529784319303847e-11</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.447761091582569e-11</v>
+        <v>3.406763607850284e-11</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.326964805840299e-11</v>
+        <v>3.28512653267439e-11</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.207330212236419e-11</v>
+        <v>3.165127745398862e-11</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>3.089159908974921e-11</v>
+        <v>3.04702189764639e-11</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.972756494259469e-11</v>
+        <v>2.931063641039347e-11</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>2.858422566294058e-11</v>
+        <v>2.817507627200423e-11</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>2.746460723282668e-11</v>
+        <v>2.706608507752304e-11</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.637173563428979e-11</v>
+        <v>2.598620934317373e-11</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.53086368493707e-11</v>
+        <v>2.493799558518409e-11</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.427833686010632e-11</v>
+        <v>2.392399031977809e-11</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.328386164853644e-11</v>
+        <v>2.294674006318251e-11</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.232823719670075e-11</v>
+        <v>2.200879133162407e-11</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.141448948663632e-11</v>
+        <v>2.111269064132688e-11</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.054564450038288e-11</v>
+        <v>2.026098450851768e-11</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.972466092519864e-11</v>
+        <v>1.945616036459308e-11</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.89525530958107e-11</v>
+        <v>1.869899849908213e-11</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.822814125492649e-11</v>
+        <v>1.798835278833155e-11</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.755012817382757e-11</v>
+        <v>1.732297396875526e-11</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.691721662379363e-11</v>
+        <v>1.670161277676538e-11</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.632810937610675e-11</v>
+        <v>1.612301994877635e-11</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.578150920204681e-11</v>
+        <v>1.558594622120046e-11</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.52761188728953e-11</v>
+        <v>1.508914233045158e-11</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.481064115993356e-11</v>
+        <v>1.463135901294343e-11</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.438377883444168e-11</v>
+        <v>1.421134700508851e-11</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.399423466770103e-11</v>
+        <v>1.382785704330057e-11</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.364071143099287e-11</v>
+        <v>1.347963986399324e-11</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.332191189559748e-11</v>
+        <v>1.316544620357922e-11</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.303653883279614e-11</v>
+        <v>1.288402679847216e-11</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.278329501387e-11</v>
+        <v>1.263413238508561e-11</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.256088321009954e-11</v>
+        <v>1.241451369983243e-11</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.236800619276593e-11</v>
+        <v>1.222392147912619e-11</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.220336673315026e-11</v>
+        <v>1.206110645938035e-11</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.206566760253316e-11</v>
+        <v>1.192481937700795e-11</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.195361157219582e-11</v>
+        <v>1.181381096842256e-11</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.186590141341898e-11</v>
+        <v>1.172683197003731e-11</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.180123989748367e-11</v>
+        <v>1.166263311826563e-11</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.175832979567088e-11</v>
+        <v>1.161996514952088e-11</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.173587387926146e-11</v>
+        <v>1.159757880021631e-11</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.173257491953639e-11</v>
+        <v>1.159422480676529e-11</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.174713568777658e-11</v>
+        <v>1.160865390558111e-11</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.177825895526301e-11</v>
+        <v>1.163961683307716e-11</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.18246474932766e-11</v>
+        <v>1.168586432566674e-11</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.188500407309824e-11</v>
+        <v>1.17461471197631e-11</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.195803146600896e-11</v>
+        <v>1.181921595177971e-11</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.204243244328965e-11</v>
+        <v>1.190382155812981e-11</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.213690977622116e-11</v>
+        <v>1.199871467522666e-11</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.224016623608461e-11</v>
+        <v>1.210264603948376e-11</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.235090459416074e-11</v>
+        <v>1.221436638731424e-11</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.246782762173068e-11</v>
+        <v>1.233262645513163e-11</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.25897652354505e-11</v>
+        <v>1.245630247619116e-11</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.271748985986858e-11</v>
+        <v>1.258618800559836e-11</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.285329001068973e-11</v>
+        <v>1.272457303237939e-11</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.299949442006775e-11</v>
+        <v>1.28737872405736e-11</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.315843182015643e-11</v>
+        <v>1.303616031422032e-11</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.333243094310998e-11</v>
+        <v>1.321402193735933e-11</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.35238205210822e-11</v>
+        <v>1.340970179402994e-11</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.373492928622682e-11</v>
+        <v>1.362552956827146e-11</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.396808597069813e-11</v>
+        <v>1.386383494412372e-11</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.422561930664966e-11</v>
+        <v>1.412694760562578e-11</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.450985802623578e-11</v>
+        <v>1.441719723681759e-11</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.482313086161021e-11</v>
+        <v>1.473691352173839e-11</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.516776654492655e-11</v>
+        <v>1.508842614442733e-11</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.554609380833935e-11</v>
+        <v>1.547406478892453e-11</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.596044138400224e-11</v>
+        <v>1.589615913926915e-11</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.641313800406872e-11</v>
+        <v>1.635703887950024e-11</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.690651240069355e-11</v>
+        <v>1.68590336936581e-11</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.744289330603025e-11</v>
+        <v>1.740447326578181e-11</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.802460945223221e-11</v>
+        <v>1.79956872799103e-11</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.865398957145441e-11</v>
+        <v>1.863500542008411e-11</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.933336239585028e-11</v>
+        <v>1.93247573703422e-11</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.006505665757306e-11</v>
+        <v>2.006727281472335e-11</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.0852169130836e-11</v>
+        <v>2.08656420473805e-11</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.170605618507089e-11</v>
+        <v>2.173113503385256e-11</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.264310163284834e-11</v>
+        <v>2.268000053484939e-11</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.367976052344471e-11</v>
+        <v>2.372855785846582e-11</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.483248790613276e-11</v>
+        <v>2.489312631279311e-11</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>2.611773883018925e-11</v>
+        <v>2.61900252059265e-11</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>2.755196834488788e-11</v>
+        <v>2.763557384595818e-11</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.915163149950179e-11</v>
+        <v>2.924609154097976e-11</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.093318334330854e-11</v>
+        <v>3.103789759908731e-11</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.291307892558144e-11</v>
+        <v>3.302731132837261e-11</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.510777329559308e-11</v>
+        <v>3.523065203692673e-11</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.75337215026221e-11</v>
+        <v>3.766423903284683e-11</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>4.020737859594129e-11</v>
+        <v>4.034439162422415e-11</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>4.314390876919176e-11</v>
+        <v>4.328612488708453e-11</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>4.634960314688127e-11</v>
+        <v>4.649548888153836e-11</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>4.982702275944951e-11</v>
+        <v>4.997476492069494e-11</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>5.357871572913409e-11</v>
+        <v>5.372622127570087e-11</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>5.760723017816336e-11</v>
+        <v>5.775212621769337e-11</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>6.191511422876465e-11</v>
+        <v>6.205474801780869e-11</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>6.650491600317704e-11</v>
+        <v>6.663635494719484e-11</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>7.137918362362817e-11</v>
+        <v>7.149921527698836e-11</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>7.654046521234457e-11</v>
+        <v>7.664559727832469e-11</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>8.197481629816258e-11</v>
+        <v>8.206141119925564e-11</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>8.759297526246977e-11</v>
+        <v>8.765786468603945e-11</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>9.328419264178157e-11</v>
+        <v>9.332485286881739e-11</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>9.893771735114497e-11</v>
+        <v>9.895226926949265e-11</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.044427983055866e-10</v>
+        <v>1.044300074099482e-10</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.096886844201532e-10</v>
+        <v>1.096479608120869e-10</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.145646246098763e-10</v>
+        <v>1.144960229977967e-10</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.189598677897888e-10</v>
+        <v>1.188640874889667e-10</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.227636628749354e-10</v>
+        <v>1.226420478074977e-10</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.258652587803485e-10</v>
+        <v>1.257197974752784e-10</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.281539044210631e-10</v>
+        <v>1.279872300142003e-10</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.2951884871212e-10</v>
+        <v>1.293342389461602e-10</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.298493405685534e-10</v>
+        <v>1.296507177930486e-10</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.290346289054014e-10</v>
+        <v>1.288265600767598e-10</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.269639626376991e-10</v>
+        <v>1.267516593191852e-10</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.235265906804833e-10</v>
+        <v>1.23315909042218e-10</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.186117619487959e-10</v>
+        <v>1.18409202767756e-10</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.121480108192955e-10</v>
+        <v>1.119605203276193e-10</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.04327244271248e-10</v>
+        <v>1.04160879028732e-10</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>9.544962818460674e-11</v>
+        <v>9.530900627661283e-11</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>8.58156612490793e-11</v>
+        <v>8.570396059940548e-11</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>7.572584215440631e-11</v>
+        <v>7.564480052528692e-11</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>6.548066959029309e-11</v>
+        <v>6.543058458239886e-11</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>5.538064224647244e-11</v>
+        <v>5.536037129891035e-11</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>4.572625881267653e-11</v>
+        <v>4.573321920298985e-11</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>3.681801797861157e-11</v>
+        <v>3.684818682277995e-11</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.895641843401028e-11</v>
+        <v>2.900433268644966e-11</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>2.244172463460577e-11</v>
+        <v>2.250048234236884e-11</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.744446039528343e-11</v>
+        <v>1.750641539129509e-11</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.379018542533639e-11</v>
+        <v>1.384879443065164e-11</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.12477600197367e-11</v>
+        <v>1.129788623923222e-11</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>9.586044473450138e-12</v>
+        <v>9.623957595824273e-12</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>8.573899081450327e-12</v>
+        <v>8.597275279223109e-12</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>7.980184138705804e-12</v>
+        <v>7.988106068218908e-12</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>7.574523483384468e-12</v>
+        <v>7.567475447557148e-12</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>7.202396467672813e-12</v>
+        <v>7.181783851653692e-12</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>6.848457286321664e-12</v>
+        <v>6.815724848777486e-12</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>6.512269078743342e-12</v>
+        <v>6.468806499829173e-12</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>6.193394984350099e-12</v>
+        <v>6.140536865709335e-12</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>5.891398142553342e-12</v>
+        <v>5.830424007317667e-12</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>5.605841692765342e-12</v>
+        <v>5.537975985554771e-12</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>5.336288774398315e-12</v>
+        <v>5.262700861321174e-12</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>5.082302526863752e-12</v>
+        <v>5.004106695516674e-12</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>4.843446089573876e-12</v>
+        <v>4.761701549041815e-12</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>4.619282601940864e-12</v>
+        <v>4.534993482797089e-12</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>4.409375203376291e-12</v>
+        <v>4.323490557682377e-12</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>4.213287033292339e-12</v>
+        <v>4.12670083459818e-12</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>4.030581231101148e-12</v>
+        <v>3.944132374444951e-12</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>3.860820936214364e-12</v>
+        <v>3.775293238122649e-12</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>3.703569288044274e-12</v>
+        <v>3.619691486531872e-12</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>3.558389426002569e-12</v>
+        <v>3.476835180572632e-12</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>3.424844489501375e-12</v>
+        <v>3.346232381145364e-12</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>3.302497617952776e-12</v>
+        <v>3.227391149150463e-12</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>3.190911950768529e-12</v>
+        <v>3.119819545488006e-12</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>3.089650627360725e-12</v>
+        <v>3.023025631058395e-12</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.998276787141421e-12</v>
+        <v>2.936517466761997e-12</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.91635356952243e-12</v>
+        <v>2.859803113498946e-12</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.843444113915817e-12</v>
+        <v>2.792390632169617e-12</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.779111559733612e-12</v>
+        <v>2.733788083674349e-12</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.722919046387677e-12</v>
+        <v>2.683503528913327e-12</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.674429713290093e-12</v>
+        <v>2.641045028786935e-12</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.63320669985275e-12</v>
+        <v>2.60592064419539e-12</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.59881314548767e-12</v>
+        <v>2.577638436039021e-12</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.570812189606857e-12</v>
+        <v>2.555706465218138e-12</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.548766971622236e-12</v>
+        <v>2.539632792632994e-12</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.532240630945813e-12</v>
+        <v>2.528925479183901e-12</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.520796306989573e-12</v>
+        <v>2.523092585771154e-12</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.513997139165474e-12</v>
+        <v>2.521642173295035e-12</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.511406266885507e-12</v>
+        <v>2.524082302655841e-12</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.512586829561645e-12</v>
+        <v>2.529921034753858e-12</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.517101966605868e-12</v>
+        <v>2.538666430489387e-12</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.524514817430147e-12</v>
+        <v>2.549826550762704e-12</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.534388521446473e-12</v>
+        <v>2.562909456474122e-12</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.546286218066817e-12</v>
+        <v>2.577423208523922e-12</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.559771197306528e-12</v>
+        <v>2.59287604010221e-12</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.574564294823427e-12</v>
+        <v>2.608956416153472e-12</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.590842165667423e-12</v>
+        <v>2.625874257674075e-12</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.608863422159804e-12</v>
+        <v>2.643933244539227e-12</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.628886676621906e-12</v>
+        <v>2.663437056624186e-12</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.65117054137502e-12</v>
+        <v>2.684689373804165e-12</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.675973628740422e-12</v>
+        <v>2.707993875954367e-12</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.703554551039465e-12</v>
+        <v>2.733654242950059e-12</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.734171920593431e-12</v>
+        <v>2.76197415466645e-12</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.768084349723591e-12</v>
+        <v>2.793257290978733e-12</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.805550450751312e-12</v>
+        <v>2.827807331762194e-12</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.846828835997868e-12</v>
+        <v>2.865927956892029e-12</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.892178117784521e-12</v>
+        <v>2.907922846243428e-12</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.941856908432656e-12</v>
+        <v>2.95409567969169e-12</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.996123820263488e-12</v>
+        <v>3.00475013711196e-12</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.055237465598419e-12</v>
+        <v>3.060189898379554e-12</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.119456456758706e-12</v>
+        <v>3.120718643369654e-12</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>3.189039406065589e-12</v>
+        <v>3.186640051957426e-12</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>3.264244925840496e-12</v>
+        <v>3.258257804018213e-12</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>3.345331628404674e-12</v>
+        <v>3.335875579427187e-12</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>3.43255812607934e-12</v>
+        <v>3.419797058059492e-12</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>3.526183031185962e-12</v>
+        <v>3.510325919790509e-12</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>3.626464956045763e-12</v>
+        <v>3.607765844495389e-12</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>3.733662512979952e-12</v>
+        <v>3.712420512049262e-12</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>3.848034314310024e-12</v>
+        <v>3.824593602327542e-12</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.969838972357077e-12</v>
+        <v>3.944588795205253e-12</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>4.099335099442634e-12</v>
+        <v>4.072709770557838e-12</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>4.236781307887892e-12</v>
+        <v>4.209260208260417e-12</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>4.382436210014025e-12</v>
+        <v>4.354543788188083e-12</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>4.536558418142593e-12</v>
+        <v>4.508864190216321e-12</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>4.699406544594777e-12</v>
+        <v>4.672525094220234e-12</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>4.871239201691722e-12</v>
+        <v>4.845830180074886e-12</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>5.052315001755041e-12</v>
+        <v>5.029083127655816e-12</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>5.242892557105887e-12</v>
+        <v>5.222587616838098e-12</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>5.44323048006538e-12</v>
+        <v>5.426647327496769e-12</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>5.653587382955185e-12</v>
+        <v>5.641565939507424e-12</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>5.874221878096227e-12</v>
+        <v>5.8676471327449e-12</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>6.105392577810208e-12</v>
+        <v>6.105194587084834e-12</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>6.347358072613894e-12</v>
+        <v>6.354511958832928e-12</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>6.599751151521046e-12</v>
+        <v>6.615226446564961e-12</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>6.859942231737937e-12</v>
+        <v>6.884519746744993e-12</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>7.124790653676836e-12</v>
+        <v>7.159021109340476e-12</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>7.391155757749058e-12</v>
+        <v>7.435359784317881e-12</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>7.655896884366885e-12</v>
+        <v>7.710165021644669e-12</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>7.915873373941867e-12</v>
+        <v>7.98006607128755e-12</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>8.167944566885574e-12</v>
+        <v>8.241692183213263e-12</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>8.408969803610254e-12</v>
+        <v>8.491672607389236e-12</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>8.635808424527473e-12</v>
+        <v>8.726636593782192e-12</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.845319770048845e-12</v>
+        <v>8.943213392358907e-12</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>9.034363180586538e-12</v>
+        <v>9.138032253086734e-12</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>9.199797996552147e-12</v>
+        <v>9.307722425932427e-12</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>9.338483558357362e-12</v>
+        <v>9.448913160862843e-12</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>9.447279206414219e-12</v>
+        <v>9.55823370784519e-12</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>9.523044281134325e-12</v>
+        <v>9.632313316846248e-12</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>9.562638122929611e-12</v>
+        <v>9.667781237833105e-12</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>9.562920072211786e-12</v>
+        <v>9.661266720772644e-12</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>9.52104407889413e-12</v>
+        <v>9.609718962060444e-12</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>9.43933643985684e-12</v>
+        <v>9.515704335852039e-12</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>9.324536137031396e-12</v>
+        <v>9.386581399907482e-12</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>9.183523626761612e-12</v>
+        <v>9.229862353443554e-12</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>9.023179365390918e-12</v>
+        <v>9.053059395676589e-12</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>8.850383809263105e-12</v>
+        <v>8.863684725823331e-12</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>8.672017414722019e-12</v>
+        <v>8.669250543100581e-12</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>8.494960638111016e-12</v>
+        <v>8.477269046724602e-12</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>8.326093935774082e-12</v>
+        <v>8.295252435912351e-12</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>8.172297764054591e-12</v>
+        <v>8.130712909880107e-12</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>8.040452579296385e-12</v>
+        <v>7.991162667844671e-12</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>7.937438837843218e-12</v>
+        <v>7.884113909022734e-12</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>7.870136996038584e-12</v>
+        <v>7.817078832630723e-12</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>7.845427510226273e-12</v>
+        <v>7.797569637885374e-12</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>7.870158339781045e-12</v>
+        <v>7.833063812017309e-12</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>7.945598975455388e-12</v>
+        <v>7.925080141151882e-12</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>8.061161962885216e-12</v>
+        <v>8.062472288285536e-12</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>8.204743062088522e-12</v>
+        <v>8.232473745584688e-12</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>8.364238033083702e-12</v>
+        <v>8.422318005216219e-12</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>8.527542635888619e-12</v>
+        <v>8.619238559346391e-12</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>8.682552630521702e-12</v>
+        <v>8.810468900142138e-12</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>8.817163777000939e-12</v>
+        <v>8.983242519769861e-12</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>8.919271835344448e-12</v>
+        <v>9.12479291039613e-12</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>8.977178102715749e-12</v>
+        <v>9.222719243658705e-12</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>8.991951543794438e-12</v>
+        <v>9.276133505642209e-12</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>8.979695121218938e-12</v>
+        <v>9.297704084074124e-12</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>8.957374397862023e-12</v>
+        <v>9.300877187409877e-12</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>8.941954936596509e-12</v>
+        <v>9.299099024104838e-12</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>8.950402300295184e-12</v>
+        <v>9.30581580261439e-12</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>8.999682051830869e-12</v>
+        <v>9.334473731393938e-12</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>9.105028443325311e-12</v>
+        <v>9.397351860214836e-12</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>9.252417920814924e-12</v>
+        <v>9.487005164226134e-12</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>9.403456275298638e-12</v>
+        <v>9.579559204247139e-12</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>9.519005663584869e-12</v>
+        <v>9.650638222022797e-12</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>9.559928242482164e-12</v>
+        <v>9.675866459298135e-12</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>9.497800381761016e-12</v>
+        <v>9.637033480718464e-12</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>9.352138292472978e-12</v>
+        <v>9.543515067698917e-12</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>9.155861081191195e-12</v>
+        <v>9.412399484035059e-12</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>8.941888479249499e-12</v>
+        <v>9.260775353031033e-12</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>8.7378636734713e-12</v>
+        <v>9.103117065870367e-12</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>8.547906727345278e-12</v>
+        <v>8.942244624300609e-12</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>8.369585059304655e-12</v>
+        <v>8.777731561638171e-12</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>8.200465810305338e-12</v>
+        <v>8.609151273725048e-12</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>8.038116121302783e-12</v>
+        <v>8.436077156402776e-12</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>7.880103133252902e-12</v>
+        <v>8.258082605513347e-12</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>7.723993987111588e-12</v>
+        <v>8.074741016898753e-12</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>7.567355823834322e-12</v>
+        <v>7.885625786400519e-12</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>7.407755784377145e-12</v>
+        <v>7.690310309860808e-12</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>7.242761009695529e-12</v>
+        <v>7.488367983121119e-12</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>7.069938640745375e-12</v>
+        <v>7.279372202023459e-12</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>6.886855818482432e-12</v>
+        <v>7.062896362409663e-12</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>6.691079683862648e-12</v>
+        <v>6.83851386012178e-12</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>6.480316060511111e-12</v>
+        <v>6.605875870195259e-12</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>6.255619694395834e-12</v>
+        <v>6.366511787066068e-12</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>6.021485173485601e-12</v>
+        <v>6.123880216216652e-12</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>5.78256395644168e-12</v>
+        <v>5.881527742947674e-12</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>5.543507501925356e-12</v>
+        <v>5.643000952559801e-12</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>5.308967268597265e-12</v>
+        <v>5.411846430353049e-12</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>5.083594715118695e-12</v>
+        <v>5.191610761628089e-12</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>4.872041300150899e-12</v>
+        <v>4.985840531685551e-12</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>4.678958482354561e-12</v>
+        <v>4.798082325825509e-12</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>4.508997720390954e-12</v>
+        <v>4.631882729348611e-12</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>4.366810472921259e-12</v>
+        <v>4.490788327555423e-12</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>4.257048198606291e-12</v>
+        <v>4.378345705746139e-12</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>4.184362356107305e-12</v>
+        <v>4.298101449221405e-12</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>4.152899813689788e-12</v>
+        <v>4.25353583019507e-12</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>4.163948947306252e-12</v>
+        <v>4.247753458859872e-12</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>4.21779272018275e-12</v>
+        <v>4.283726814433176e-12</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>4.314712984367142e-12</v>
+        <v>4.364428230101805e-12</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>4.454991591907172e-12</v>
+        <v>4.492830039052506e-12</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>4.638910394850422e-12</v>
+        <v>4.671904574471857e-12</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>4.866751245244993e-12</v>
+        <v>4.904624169546939e-12</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>5.138795995138507e-12</v>
+        <v>5.193961157464375e-12</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>5.455326778775118e-12</v>
+        <v>5.542888146265961e-12</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>5.867567904858351e-12</v>
+        <v>6.00399466399232e-12</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>6.619797419716884e-12</v>
+        <v>6.817901706850575e-12</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>7.998777750666255e-12</v>
+        <v>8.266510069916195e-12</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.008188284702519e-11</v>
+        <v>1.042135781706363e-11</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.261300072680477e-11</v>
+        <v>1.301894542080569e-11</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.530626227027076e-11</v>
+        <v>1.576587776040821e-11</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.787579835768203e-11</v>
+        <v>1.836875971512991e-11</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>2.003573986929788e-11</v>
+        <v>2.053419616423008e-11</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>2.150372589139902e-11</v>
+        <v>2.197247665039018e-11</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.222107753663935e-11</v>
+        <v>2.262882360672619e-11</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.248362759946632e-11</v>
+        <v>2.282080254392218e-11</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.261863527511121e-11</v>
+        <v>2.289898607337458e-11</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.295335975880421e-11</v>
+        <v>2.321394680647887e-11</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.378125256066931e-11</v>
+        <v>2.407941709979994e-11</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.506753735539102e-11</v>
+        <v>2.545145923985661e-11</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>2.659286482435675e-11</v>
+        <v>2.708500621116074e-11</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>2.813582875446442e-11</v>
+        <v>2.873274959905959e-11</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.947502293261621e-11</v>
+        <v>3.014738098890507e-11</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.040305069057619e-11</v>
+        <v>3.109780978510214e-11</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.087010874215237e-11</v>
+        <v>3.15353796523458e-11</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>3.092562033471894e-11</v>
+        <v>3.152630151065354e-11</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>3.062055596539541e-11</v>
+        <v>3.113857741720294e-11</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>3.000588613130031e-11</v>
+        <v>3.044020942917034e-11</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.913252788536082e-11</v>
+        <v>2.94989581587209e-11</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.80489471721397e-11</v>
+        <v>2.837151083724568e-11</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.680019119328714e-11</v>
+        <v>2.709910982941654e-11</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.543105343786491e-11</v>
+        <v>2.572185130165349e-11</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.398632739493519e-11</v>
+        <v>2.427983142037689e-11</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.251080655355624e-11</v>
+        <v>2.281314635200316e-11</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.10492844027915e-11</v>
+        <v>2.136189226295393e-11</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.964599449942661e-11</v>
+        <v>1.996567100896107e-11</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.832562139446834e-11</v>
+        <v>1.864682649706864e-11</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.708866843059942e-11</v>
+        <v>1.7406355356756e-11</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.593413942503899e-11</v>
+        <v>1.624393042979651e-11</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.486103819500955e-11</v>
+        <v>1.515922455796687e-11</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.386836855773333e-11</v>
+        <v>1.415191058304354e-11</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.295513433042991e-11</v>
+        <v>1.322166134680028e-11</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.212033933032159e-11</v>
+        <v>1.236814969101359e-11</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.136298737463037e-11</v>
+        <v>1.159104845745971e-11</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.068208228057625e-11</v>
+        <v>1.089003048791282e-11</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.007662786538182e-11</v>
+        <v>1.026476862414975e-11</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>9.545627946267365e-12</v>
+        <v>9.714935707944938e-12</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>9.088086340454819e-12</v>
+        <v>9.24020458107456e-12</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>8.70274556001385e-12</v>
+        <v>8.839970465692383e-12</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>8.381259952656767e-12</v>
+        <v>8.506097873228055e-12</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>8.107539340315291e-12</v>
+        <v>8.222223263332422e-12</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>7.865100644658943e-12</v>
+        <v>7.971565664842216e-12</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>7.637460787356284e-12</v>
+        <v>7.737344106593187e-12</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>7.408136690076536e-12</v>
+        <v>7.502777617421757e-12</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>7.160645274488928e-12</v>
+        <v>7.251085226164354e-12</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>6.878503462262016e-12</v>
+        <v>6.965485961656723e-12</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>6.545240921168352e-12</v>
+        <v>6.629211681100927e-12</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>6.154521231213203e-12</v>
+        <v>6.235693557372202e-12</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>5.728350177883348e-12</v>
+        <v>5.806887887102709e-12</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>5.29365042033399e-12</v>
+        <v>5.369699573693422e-12</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>4.877344617720356e-12</v>
+        <v>4.951033520545351e-12</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>4.506355429196549e-12</v>
+        <v>4.577794631058361e-12</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>4.207605513918057e-12</v>
+        <v>4.276887808633718e-12</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>4.008017531039193e-12</v>
+        <v>4.075217956671502e-12</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>3.934514139715131e-12</v>
+        <v>3.999689978572666e-12</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>4.014017999100597e-12</v>
+        <v>4.077208777737707e-12</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>4.273451768350584e-12</v>
+        <v>4.334679257567389e-12</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>4.739738106619966e-12</v>
+        <v>4.799006321462357e-12</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>5.439799673062872e-12</v>
+        <v>5.497094872822517e-12</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>6.400559126835411e-12</v>
+        <v>6.455849815049747e-12</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>7.662397724582873e-12</v>
+        <v>7.715882333438652e-12</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>9.434105280846329e-12</v>
+        <v>9.489311466870881e-12</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.203908093373108e-11</v>
+        <v>1.210497478285363e-11</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.580292045173244e-11</v>
+        <v>1.589394690482549e-11</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.105121960335762e-11</v>
+        <v>2.118730245623701e-11</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>2.810957415710444e-11</v>
+        <v>2.831611606052928e-11</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>3.69565418362166e-11</v>
+        <v>3.72585283584269e-11</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>4.4398208726481e-11</v>
+        <v>4.476631024423938e-11</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>4.554044581796387e-11</v>
+        <v>4.586213203263222e-11</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>4.09054914011442e-11</v>
+        <v>4.107032699890922e-11</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>4.262012102116618e-11</v>
+        <v>4.271408066003726e-11</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>4.842094418056055e-11</v>
+        <v>4.851833243046658e-11</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>5.423958385333011e-11</v>
+        <v>5.437616023519908e-11</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>5.637297705238471e-11</v>
+        <v>5.654780850526277e-11</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>5.496901101539553e-11</v>
+        <v>5.516399963945292e-11</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>5.248416719738452e-11</v>
+        <v>5.267575688005992e-11</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>5.138281578431931e-11</v>
+        <v>5.154232757438985e-11</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>5.237258936402974e-11</v>
+        <v>5.247948327205518e-11</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>5.32953646532306e-11</v>
+        <v>5.335837497164978e-11</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>5.312260042749229e-11</v>
+        <v>5.316261329150932e-11</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>5.201618560504048e-11</v>
+        <v>5.205000260576269e-11</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>5.017529182481379e-11</v>
+        <v>5.021512150677423e-11</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>4.779909072575353e-11</v>
+        <v>4.785254858691093e-11</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>4.508675394680298e-11</v>
+        <v>4.515686243854177e-11</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>4.223745312689784e-11</v>
+        <v>4.232264165402817e-11</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>3.944286305969243e-11</v>
+        <v>3.953722074124279e-11</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>3.678713332944281e-11</v>
+        <v>3.688403427784254e-11</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.427395589037966e-11</v>
+        <v>3.436877189040004e-11</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.190508248326918e-11</v>
+        <v>3.199524840752508e-11</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.968226484887703e-11</v>
+        <v>2.976727865782689e-11</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.760725472796295e-11</v>
+        <v>2.768867746990878e-11</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.568180386129444e-11</v>
+        <v>2.57632596723818e-11</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.390766398963171e-11</v>
+        <v>2.399484009384977e-11</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.228660848900005e-11</v>
+        <v>2.238724870510512e-11</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.082654534733059e-11</v>
+        <v>2.094860899683807e-11</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.954992162846456e-11</v>
+        <v>1.969722013387576e-11</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.848129082137111e-11</v>
+        <v>1.865285553538223e-11</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.764520641501863e-11</v>
+        <v>1.783528862052078e-11</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.706339380089187e-11</v>
+        <v>1.726168249617511e-11</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.671004340128073e-11</v>
+        <v>1.690532585736339e-11</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.651988596378615e-11</v>
+        <v>1.67030864221112e-11</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.642645676824243e-11</v>
+        <v>1.659072850086738e-11</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.636329109448446e-11</v>
+        <v>1.650401640408142e-11</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.626392422234677e-11</v>
+        <v>1.63787144422024e-11</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.606189143166402e-11</v>
+        <v>1.615058692567955e-11</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.569825547274871e-11</v>
+        <v>1.576287305271182e-11</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.519076735559578e-11</v>
+        <v>1.523496457958957e-11</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.460195904119031e-11</v>
+        <v>1.463072139874021e-11</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.399492366031312e-11</v>
+        <v>1.401456065236637e-11</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.343275434374333e-11</v>
+        <v>1.345089948266892e-11</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.297824154654991e-11</v>
+        <v>1.30038368222925e-11</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.26476893815453e-11</v>
+        <v>1.26885995013516e-11</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.236125758272714e-11</v>
+        <v>1.241933567370797e-11</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.203145649116357e-11</v>
+        <v>1.210224009235221e-11</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.162992973404361e-11</v>
+        <v>1.170690467731445e-11</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.117158398905322e-11</v>
+        <v>1.124930393648536e-11</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.067231585562785e-11</v>
+        <v>1.07464736790738e-11</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.014802193320344e-11</v>
+        <v>1.021544971428911e-11</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>9.614598821214478e-12</v>
+        <v>9.673267851339178e-12</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>9.087943119097353e-12</v>
+        <v>9.136963899433815e-12</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>8.583860683523105e-12</v>
+        <v>8.623476613232052e-12</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>8.112021457461129e-12</v>
+        <v>8.143182038549864e-12</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>7.672164336150206e-12</v>
+        <v>7.695834400569725e-12</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>7.263122835944885e-12</v>
+        <v>7.280219570240603e-12</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>6.883730473200938e-12</v>
+        <v>6.895123418512699e-12</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>6.532820764274007e-12</v>
+        <v>6.539331816336095e-12</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>6.209227225518814e-12</v>
+        <v>6.211630634659931e-12</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>5.911783373291034e-12</v>
+        <v>5.910805744434318e-12</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.639322723946254e-12</v>
+        <v>5.635643016609273e-12</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.39067879383933e-12</v>
+        <v>5.384928322134078e-12</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.164685099326061e-12</v>
+        <v>5.157447531958964e-12</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>4.960175156761391e-12</v>
+        <v>4.951986517033302e-12</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.775982482500881e-12</v>
+        <v>4.767331148307085e-12</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.61094059290002e-12</v>
+        <v>4.602267296730233e-12</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>4.463883004313861e-12</v>
+        <v>4.455580833252224e-12</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>4.333643233097911e-12</v>
+        <v>4.326057628822998e-12</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>4.219054795607612e-12</v>
+        <v>4.212483554392426e-12</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>4.11895120819811e-12</v>
+        <v>4.113644480910083e-12</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>4.032165987224863e-12</v>
+        <v>4.028326279325858e-12</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.957532649043281e-12</v>
+        <v>3.955314820589587e-12</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.893884710008581e-12</v>
+        <v>3.893395975650921e-12</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.840055686476226e-12</v>
+        <v>3.84135561545975e-12</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.79487909480147e-12</v>
+        <v>3.797979610965761e-12</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.757188451339716e-12</v>
+        <v>3.762053833118782e-12</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.72581727244631e-12</v>
+        <v>3.732364152868591e-12</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.699599074476626e-12</v>
+        <v>3.707696441164988e-12</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.677367373785962e-12</v>
+        <v>3.686836568957707e-12</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.658094593965724e-12</v>
+        <v>3.668716447679954e-12</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.641526744874883e-12</v>
+        <v>3.653081300696718e-12</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.627677551711318e-12</v>
+        <v>3.639957814589921e-12</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.616560998370933e-12</v>
+        <v>3.629372947924327e-12</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.608191068749606e-12</v>
+        <v>3.621353659264678e-12</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.602581746743245e-12</v>
+        <v>3.615926907175741e-12</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.59974701624775e-12</v>
+        <v>3.613119650222279e-12</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.599700861159012e-12</v>
+        <v>3.612958846969044e-12</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.602457265372934e-12</v>
+        <v>3.6154714559808e-12</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.608030212785404e-12</v>
+        <v>3.620684435822296e-12</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.616433687292332e-12</v>
+        <v>3.628624745058305e-12</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.627681672789599e-12</v>
+        <v>3.639319342253568e-12</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.641788153173124e-12</v>
+        <v>3.652795185972865e-12</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.658767112338794e-12</v>
+        <v>3.669079234780945e-12</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.678632534182487e-12</v>
+        <v>3.688198447242548e-12</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.701398402600137e-12</v>
+        <v>3.71017978192247e-12</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.727078701487625e-12</v>
+        <v>3.73505019738545e-12</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.755687414740822e-12</v>
+        <v>3.762836652196223e-12</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.787238526255673e-12</v>
+        <v>3.793566104919595e-12</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.821746019928057e-12</v>
+        <v>3.827265514120305e-12</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.85922387965383e-12</v>
+        <v>3.863961838363075e-12</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>3.899686089328962e-12</v>
+        <v>3.90368203621273e-12</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>3.943146632849274e-12</v>
+        <v>3.946453066233957e-12</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>3.989619494110742e-12</v>
+        <v>3.992301886991591e-12</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>4.039118657009228e-12</v>
+        <v>4.041255457050356e-12</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>4.091658105440579e-12</v>
+        <v>4.093340734974961e-12</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>4.147251823300787e-12</v>
+        <v>4.148584679330257e-12</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>4.205913794485704e-12</v>
+        <v>4.20701424868096e-12</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>4.26765800289117e-12</v>
+        <v>4.268656401591771e-12</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>4.332498432413192e-12</v>
+        <v>4.333538096627559e-12</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>4.400449066947615e-12</v>
+        <v>4.401686292353028e-12</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>4.471523890390271e-12</v>
+        <v>4.473127947332873e-12</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>4.545736886637186e-12</v>
+        <v>4.547890020131981e-12</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>4.623102039584121e-12</v>
+        <v>4.625999469314973e-12</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>4.703633333127116e-12</v>
+        <v>4.707483253446753e-12</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>4.787683127511344e-12</v>
+        <v>4.792697228190579e-12</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>4.877202630049497e-12</v>
+        <v>4.883551306290178e-12</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>4.974614821820764e-12</v>
+        <v>4.982413958019322e-12</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>5.082342752284559e-12</v>
+        <v>5.09165372011642e-12</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>5.202809470899916e-12</v>
+        <v>5.213639129319496e-12</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>5.338438027126292e-12</v>
+        <v>5.350738722367001e-12</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>5.491651470422817e-12</v>
+        <v>5.505321035997059e-12</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>5.664872850248566e-12</v>
+        <v>5.679754606947733e-12</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>5.860525216063086e-12</v>
+        <v>5.876407971957564e-12</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>6.081031617325466e-12</v>
+        <v>6.097649667764638e-12</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>6.328815103494708e-12</v>
+        <v>6.345848231106943e-12</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>6.606140936660655e-12</v>
+        <v>6.62321653489894e-12</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>6.912455913997085e-12</v>
+        <v>6.929186918811486e-12</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>7.244776446482787e-12</v>
+        <v>7.260794045123243e-12</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>7.600039307829685e-12</v>
+        <v>7.61499401062617e-12</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>7.975181271748481e-12</v>
+        <v>7.988742912110995e-12</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>8.36713911195118e-12</v>
+        <v>8.37899684636975e-12</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>8.77284960214879e-12</v>
+        <v>8.78271191019347e-12</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>9.18924951605226e-12</v>
+        <v>9.196844200373136e-12</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>9.613275627373667e-12</v>
+        <v>9.618349813700858e-12</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.004186470982398e-11</v>
+        <v>1.004418484696762e-11</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.047195353711414e-11</v>
+        <v>1.047130539696441e-11</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.090047888295625e-11</v>
+        <v>1.089666756048334e-11</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.132437752106125e-11</v>
+        <v>1.131722743431541e-11</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.174058622514012e-11</v>
+        <v>1.172994111525159e-11</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.214604176890492e-11</v>
+        <v>1.2131764700084e-11</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.254075576016811e-11</v>
+        <v>1.252274362367508e-11</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.293892594670999e-11</v>
+        <v>1.291717637677363e-11</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.335883850336145e-11</v>
+        <v>1.333346916225956e-11</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.381877998657524e-11</v>
+        <v>1.379002856643471e-11</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.433703695280531e-11</v>
+        <v>1.430526117560215e-11</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.493189595850444e-11</v>
+        <v>1.489757357606377e-11</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.562164356012512e-11</v>
+        <v>1.558537235412117e-11</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.642456631412175e-11</v>
+        <v>1.638706409607784e-11</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.735893778383926e-11</v>
+        <v>1.732104195268846e-11</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.843900659419794e-11</v>
+        <v>1.840153707967352e-11</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.966931857931769e-11</v>
+        <v>1.96327474439519e-11</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.105298689253144e-11</v>
+        <v>2.101738954622077e-11</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.259312468717156e-11</v>
+        <v>2.255817988717676e-11</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.429284511657463e-11</v>
+        <v>2.42578349675207e-11</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.615526133407316e-11</v>
+        <v>2.611907128794935e-11</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.818348649299909e-11</v>
+        <v>2.81446053491589e-11</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>3.038063374668989e-11</v>
+        <v>3.033715365185105e-11</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>3.274778711456289e-11</v>
+        <v>3.269747587544944e-11</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>3.526127003144521e-11</v>
+        <v>3.520245351258259e-11</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>3.788085669386112e-11</v>
+        <v>3.781300858601749e-11</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>4.056601847083154e-11</v>
+        <v>4.048977108294074e-11</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>4.327622673138467e-11</v>
+        <v>4.319337099054619e-11</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>4.597095284454148e-11</v>
+        <v>4.588443829602048e-11</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>4.860966817932303e-11</v>
+        <v>4.85236029865503e-11</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>5.115184410475743e-11</v>
+        <v>5.107149504932944e-11</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>5.355695198986564e-11</v>
+        <v>5.348874447154454e-11</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>5.578247515654983e-11</v>
+        <v>5.573382747357232e-11</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>5.77575947072052e-11</v>
+        <v>5.773455883902446e-11</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>5.939042074306096e-11</v>
+        <v>5.93959259132036e-11</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>6.058856114255457e-11</v>
+        <v>6.062237195431773e-11</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>6.125962378411892e-11</v>
+        <v>6.131834022057022e-11</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>6.131121654618869e-11</v>
+        <v>6.13882739701662e-11</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>6.065099602561845e-11</v>
+        <v>6.073666614641548e-11</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>5.926566465497095e-11</v>
+        <v>5.934862397821691e-11</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>5.738171314911019e-11</v>
+        <v>5.745380092384589e-11</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>5.527093060018963e-11</v>
+        <v>5.532804764211125e-11</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>5.320510608008065e-11</v>
+        <v>5.324721477125382e-11</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>5.140100483215098e-11</v>
+        <v>5.143135370819183e-11</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>4.986001405519739e-11</v>
+        <v>4.988210263121735e-11</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>4.853083058549185e-11</v>
+        <v>4.854766682720328e-11</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>4.736215125930109e-11</v>
+        <v>4.737625158301728e-11</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>4.630267291289548e-11</v>
+        <v>4.63160621855306e-11</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>4.53010923825441e-11</v>
+        <v>4.531530392161331e-11</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>4.430610650451693e-11</v>
+        <v>4.432218207813623e-11</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>4.326641211508131e-11</v>
+        <v>4.328490194196766e-11</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>4.21307060505083e-11</v>
+        <v>4.215166879997958e-11</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>4.085657140530592e-11</v>
+        <v>4.087963184739265e-11</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>3.945275929532634e-11</v>
+        <v>3.947744025625474e-11</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>3.794629777544041e-11</v>
+        <v>3.797213871032603e-11</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>3.636423771084123e-11</v>
+        <v>3.639079485167236e-11</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>3.473362996672603e-11</v>
+        <v>3.476047632236357e-11</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>3.308152540829215e-11</v>
+        <v>3.310825076446969e-11</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>3.143497490073246e-11</v>
+        <v>3.146118582005627e-11</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.982102930924432e-11</v>
+        <v>2.984634913119335e-11</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.826660707125255e-11</v>
+        <v>2.829067620948935e-11</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.67857865598843e-11</v>
+        <v>2.680829132922539e-11</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>2.536926048169075e-11</v>
+        <v>2.538998560079686e-11</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>2.400523927152987e-11</v>
+        <v>2.402407343580423e-11</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>2.26819333642635e-11</v>
+        <v>2.269886924585181e-11</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>2.138755319475331e-11</v>
+        <v>2.14026874425438e-11</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>2.01103091978575e-11</v>
+        <v>2.012384243748087e-11</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.883841180843778e-11</v>
+        <v>1.885064864226722e-11</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.756007146135582e-11</v>
+        <v>1.757142046850703e-11</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.62641184272508e-11</v>
+        <v>1.627508614262191e-11</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.495407969148457e-11</v>
+        <v>1.496512784482645e-11</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.364842791884611e-11</v>
+        <v>1.365982825543959e-11</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.236630540724806e-11</v>
+        <v>1.237813318322249e-11</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.112685445460772e-11</v>
+        <v>1.113898843694095e-11</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>9.949217358837834e-12</v>
+        <v>9.96133982535623e-12</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>8.852536417854568e-12</v>
+        <v>8.864133157232995e-12</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>7.855953929573775e-12</v>
+        <v>7.866314241335609e-12</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>6.978612191908661e-12</v>
+        <v>6.986828886425784e-12</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>6.238254862001183e-12</v>
+        <v>6.243341230891825e-12</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>5.646584573482207e-12</v>
+        <v>5.647979609347524e-12</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>5.213673323550922e-12</v>
+        <v>5.211378092512888e-12</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.949700893416028e-12</v>
+        <v>4.944278648289539e-12</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.871805845100952e-12</v>
+        <v>4.864389193687586e-12</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>5.00081664085146e-12</v>
+        <v>4.993014587727532e-12</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>5.31127900896523e-12</v>
+        <v>5.304510181084477e-12</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>5.759115013640319e-12</v>
+        <v>5.754344563735411e-12</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>6.300201686959874e-12</v>
+        <v>6.297940657373508e-12</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>6.890161046284297e-12</v>
+        <v>6.890473392141426e-12</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>7.478723323523845e-12</v>
+        <v>7.481388174045365e-12</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>8.00971223489972e-12</v>
+        <v>8.014386560390866e-12</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>8.42669353585428e-12</v>
+        <v>8.432919252011944e-12</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>8.673232981831522e-12</v>
+        <v>8.680436949744255e-12</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>8.69294009208458e-12</v>
+        <v>8.700434089211227e-12</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>8.474909514690365e-12</v>
+        <v>8.481860072028019e-12</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>8.13973575339178e-12</v>
+        <v>8.145076953171115e-12</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>7.831638367327829e-12</v>
+        <v>7.834056176385429e-12</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>7.687187925268888e-12</v>
+        <v>7.685171362537791e-12</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>7.699444412459596e-12</v>
+        <v>7.692245554940225e-12</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>7.733944593783114e-12</v>
+        <v>7.722431635948195e-12</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>7.651787705589001e-12</v>
+        <v>7.638474643980927e-12</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>7.34548062729833e-12</v>
+        <v>7.334075639520519e-12</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>6.840484540454028e-12</v>
+        <v>6.833978190774601e-12</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>6.197435622484909e-12</v>
+        <v>6.19759506880138e-12</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>5.476970274726678e-12</v>
+        <v>5.484339265346345e-12</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.739724898515327e-12</v>
+        <v>4.753623772155252e-12</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>4.046331795755003e-12</v>
+        <v>4.064857583651427e-12</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.442724593164585e-12</v>
+        <v>3.46311713650834e-12</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.927112213833591e-12</v>
+        <v>2.946942899889276e-12</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.488034436359241e-12</v>
+        <v>2.505447039380386e-12</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.114031039340179e-12</v>
+        <v>2.12774172056925e-12</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.793641801374816e-12</v>
+        <v>1.802939109043213e-12</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.515406501060723e-12</v>
+        <v>1.520151370388774e-12</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.267865168058554e-12</v>
+        <v>1.268490921512838e-12</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.051262137652579e-12</v>
+        <v>1.048785890616125e-12</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>8.92188211326577e-13</v>
+        <v>8.880126090872842e-13</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>7.850865650065546e-13</v>
+        <v>7.804028296960319e-13</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>7.179264408556815e-13</v>
+        <v>7.136208975779743e-13</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.786770810369691e-13</v>
+        <v>6.75331157868562e-13</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.553077277136357e-13</v>
+        <v>6.531979557034491e-13</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.374432145642837e-13</v>
+        <v>6.365822580288601e-13</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.225578747413241e-13</v>
+        <v>6.228890643228997e-13</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.104500036887148e-13</v>
+        <v>6.119049307907558e-13</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.009182536012614e-13</v>
+        <v>6.034167792297748e-13</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>5.937612766738036e-13</v>
+        <v>5.972115314373339e-13</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>5.887777251011728e-13</v>
+        <v>5.930761092108023e-13</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>5.857662510781875e-13</v>
+        <v>5.907974343475386e-13</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>5.845255067996809e-13</v>
+        <v>5.901624286449138e-13</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>5.848541444604795e-13</v>
+        <v>5.90958013900293e-13</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>5.865508162554119e-13</v>
+        <v>5.929711119110435e-13</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>5.894141743793029e-13</v>
+        <v>5.959886444745288e-13</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>5.932429751210434e-13</v>
+        <v>5.99797688185082e-13</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>5.978559776417058e-13</v>
+        <v>6.042150656561546e-13</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>6.031155962808457e-13</v>
+        <v>6.091225185669133e-13</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>6.088900041663951e-13</v>
+        <v>6.144103524181306e-13</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>6.150473744262726e-13</v>
+        <v>6.199688727105664e-13</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>6.21455880188395e-13</v>
+        <v>6.2568838494498e-13</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>6.279836945806965e-13</v>
+        <v>6.31459194622145e-13</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>6.344989907310943e-13</v>
+        <v>6.371716072428206e-13</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>6.408699417675055e-13</v>
+        <v>6.427159283077658e-13</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>6.469647208178644e-13</v>
+        <v>6.479824633177548e-13</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>6.526515010100834e-13</v>
+        <v>6.528615177735423e-13</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>6.577984554720952e-13</v>
+        <v>6.572433971759011e-13</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>6.622737573318173e-13</v>
+        <v>6.610184070255903e-13</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>6.659455797171696e-13</v>
+        <v>6.640768528233718e-13</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>6.686820957560813e-13</v>
+        <v>6.66309040070015e-13</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>6.703514785764718e-13</v>
+        <v>6.676052742662808e-13</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>6.708219013062638e-13</v>
+        <v>6.678558609129334e-13</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>6.699615370733815e-13</v>
+        <v>6.669511055107378e-13</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>6.676385590057457e-13</v>
+        <v>6.647813135604561e-13</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>6.638600928731011e-13</v>
+        <v>6.613655109839465e-13</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>6.592741722257647e-13</v>
+        <v>6.573164361961581e-13</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>6.547134915205867e-13</v>
+        <v>6.534178904240663e-13</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>6.510107623607241e-13</v>
+        <v>6.50453690778331e-13</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>6.489986963493459e-13</v>
+        <v>6.492076543696225e-13</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>6.495100050896177e-13</v>
+        <v>6.50463598308608e-13</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>6.533774001846992e-13</v>
+        <v>6.550053397059487e-13</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>6.614335932377622e-13</v>
+        <v>6.636166956723196e-13</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>6.745112958519559e-13</v>
+        <v>6.770814833183704e-13</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>6.934432196304681e-13</v>
+        <v>6.961835197547918e-13</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>7.190620761764552e-13</v>
+        <v>7.217066220922415e-13</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>7.522005770930486e-13</v>
+        <v>7.544346074413531e-13</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>7.936914339834728e-13</v>
+        <v>7.951512929128522e-13</v>
       </c>
     </row>
   </sheetData>
